--- a/templates/1.xlsx
+++ b/templates/1.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dean/PycharmProjects/3projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Document\PycharmProjects\GitHub\3projects-master\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="201706080658" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>填写人</t>
   </si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>9.00</t>
+  </si>
+  <si>
+    <t>填写人ID</t>
+  </si>
+  <si>
+    <t>deanliu</t>
   </si>
 </sst>
 </file>
@@ -97,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,18 +114,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +177,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,7 +208,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -184,6 +226,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,115 +492,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="5" width="41.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="9" width="9.83203125" customWidth="1"/>
+    <col min="1" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="10" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
         <v>42886.375</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
         <v>42882.375</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>